--- a/mlfnd_TestPerceptualPhenomenon/M2-Project-TestPerceptualPhenomenon.xlsx
+++ b/mlfnd_TestPerceptualPhenomenon/M2-Project-TestPerceptualPhenomenon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Congruent</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Sample Statistics</t>
   </si>
   <si>
-    <t>Degree of feedom</t>
-  </si>
-  <si>
     <t>Diff (Cong-InCong)</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Sample</t>
-  </si>
-  <si>
-    <t>Alpha</t>
   </si>
   <si>
     <t>degree of freedom</t>
@@ -98,22 +92,6 @@
   </si>
   <si>
     <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Statistical</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Mean of X</t>
     </r>
     <r>
@@ -126,33 +104,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7.75"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="5.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
     </r>
   </si>
   <si>
@@ -191,6 +142,54 @@
     </r>
   </si>
   <si>
+    <t>Degree of freedom</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard deviation of the diff)</t>
+    </r>
+  </si>
+  <si>
+    <t>mean difference SE</t>
+  </si>
+  <si>
+    <t>T  Statistic</t>
+  </si>
+  <si>
     <r>
       <t>null hypothesis: H</t>
     </r>
@@ -230,7 +229,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> ≥ μ</t>
+      <t xml:space="preserve"> = μ</t>
     </r>
     <r>
       <rPr>
@@ -292,7 +291,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> &lt; μ</t>
+      <t xml:space="preserve"> ≠ μ</t>
     </r>
     <r>
       <rPr>
@@ -314,12 +313,39 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>P Value</t>
+  </si>
+  <si>
+    <t>from T able</t>
+  </si>
+  <si>
+    <t>&lt; 0.002</t>
+  </si>
+  <si>
+    <t>significance level(Alpha)</t>
+  </si>
+  <si>
+    <t>only a 5% chance of making a Type I error.</t>
+  </si>
+  <si>
+    <t>P-value, &lt; 0.002, is less than α = 0.05, we reject the null hypothesis H0: μC = μI  in favor of the alternative hypothesis HA: μC ≠ μI.</t>
+  </si>
+  <si>
+    <t>T  Statistic does not falls within t Critical  range ie [-2.069,+2.069] and test statistic is extremely  less than -2.069 or greater than 2.069, Null hypothesis is rejected in favor of the alternative hypothesis. Mean time for color recognition for congruent words Set vs incongruent words Set are not same and are different.</t>
+  </si>
+  <si>
+    <t>We are 95% confident that the mean difference between "before" and "after" is between -10.019368 and -5.91021542</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +441,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +512,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -980,19 +1027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="1"/>
@@ -1059,13 +1093,52 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1089,7 +1162,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1160,8 +1232,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1183,24 +1253,49 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,8 +1317,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4488407699037621E-2"/>
           <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.66936723534558185"/>
-          <c:h val="0.79869969378827643"/>
+          <c:w val="0.66936723534558218"/>
+          <c:h val="0.79869969378827677"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1421,24 +1516,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73411584"/>
-        <c:axId val="74026368"/>
+        <c:axId val="73598080"/>
+        <c:axId val="73599616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73411584"/>
+        <c:axId val="73598080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74026368"/>
+        <c:crossAx val="73599616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74026368"/>
+        <c:axId val="73599616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1541,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73411584"/>
+        <c:crossAx val="73598080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1459,7 +1554,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1471,13 +1566,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1785,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O29"/>
+  <dimension ref="B1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C26"/>
+      <selection activeCell="H34" sqref="H34:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1797,40 +1892,40 @@
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="28.5" thickBot="1">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="2:11" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>27</v>
+      <c r="D2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="65">
+      <c r="B3" s="59">
         <v>12.079000000000001</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="60">
         <v>19.277999999999999</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <f>(B3-C3)</f>
         <v>-7.1989999999999981</v>
       </c>
-      <c r="E3" s="41">
-        <f>(D3-I$27)*(D3-I$27)</f>
+      <c r="E3" s="40">
+        <f t="shared" ref="E3:E26" si="0">(D3-I$25)*(D3-I$25)</f>
         <v>0.58643687673611011</v>
       </c>
       <c r="H3" s="8"/>
@@ -1843,12 +1938,12 @@
       <c r="C4" s="4">
         <v>18.741</v>
       </c>
-      <c r="D4" s="39">
-        <f t="shared" ref="D4:D26" si="0">(B4-C4)</f>
+      <c r="D4" s="38">
+        <f t="shared" ref="D4:D26" si="1">(B4-C4)</f>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="E4" s="42">
-        <f t="shared" ref="E4:E26" si="1">(D4-I$27)*(D4-I$27)</f>
+      <c r="E4" s="41">
+        <f t="shared" si="0"/>
         <v>36.177718793402754</v>
       </c>
     </row>
@@ -1859,26 +1954,26 @@
       <c r="C5" s="4">
         <v>21.213999999999999</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
+        <f t="shared" si="1"/>
+        <v>-11.649999999999999</v>
+      </c>
+      <c r="E5" s="41">
         <f t="shared" si="0"/>
-        <v>-11.649999999999999</v>
-      </c>
-      <c r="E5" s="42">
-        <f t="shared" si="1"/>
         <v>13.580760460069452</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>7</v>
+      <c r="K5" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1888,26 +1983,26 @@
       <c r="C6" s="4">
         <v>15.686999999999999</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
+        <f t="shared" si="1"/>
+        <v>-7.0569999999999986</v>
+      </c>
+      <c r="E6" s="41">
         <f t="shared" si="0"/>
-        <v>-7.0569999999999986</v>
-      </c>
-      <c r="E6" s="42">
-        <f t="shared" si="1"/>
         <v>0.8240857100694422</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="43">
         <f>COUNT($B$3:$B$26)</f>
         <v>24</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="43">
         <f>COUNT($C$3:$C$26)</f>
         <v>24</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="3">
@@ -1916,26 +2011,26 @@
       <c r="C7" s="4">
         <v>22.803000000000001</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
+        <f t="shared" si="1"/>
+        <v>-8.1340000000000003</v>
+      </c>
+      <c r="E7" s="41">
         <f t="shared" si="0"/>
-        <v>-8.1340000000000003</v>
-      </c>
-      <c r="E7" s="42">
-        <f t="shared" si="1"/>
         <v>2.8631460069445447E-2</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="43">
         <f>SUM($B$3:$B$26)</f>
         <v>337.22700000000003</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="45">
         <f>SUM($C$3:$C$26)</f>
         <v>528.38200000000006</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="44">
         <f t="shared" ref="K7:K15" si="2">(I7-J7)</f>
         <v>-191.15500000000003</v>
       </c>
@@ -1947,26 +2042,26 @@
       <c r="C8" s="4">
         <v>20.878</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
+        <f t="shared" si="1"/>
+        <v>-8.64</v>
+      </c>
+      <c r="E8" s="41">
         <f t="shared" si="0"/>
-        <v>-8.64</v>
-      </c>
-      <c r="E8" s="42">
-        <f t="shared" si="1"/>
         <v>0.4559062934027821</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="46">
+      <c r="H8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="43">
         <f>AVERAGE($B$3:$B$26)</f>
         <v>14.051125000000001</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="45">
         <f>AVERAGE($C$3:$C$26)</f>
         <v>22.015916666666669</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="44">
         <f t="shared" si="2"/>
         <v>-7.9647916666666685</v>
       </c>
@@ -1978,26 +2073,26 @@
       <c r="C9" s="4">
         <v>24.571999999999999</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
+        <f t="shared" si="1"/>
+        <v>-9.879999999999999</v>
+      </c>
+      <c r="E9" s="41">
         <f t="shared" si="0"/>
-        <v>-9.879999999999999</v>
-      </c>
-      <c r="E9" s="42">
-        <f t="shared" si="1"/>
         <v>3.6680229600694507</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="46">
+      <c r="H9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="43">
         <f>MEDIAN($B$3:$B$26)</f>
         <v>14.3565</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="45">
         <f>MEDIAN($C$3:$C$26)</f>
         <v>21.017499999999998</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="44">
         <f t="shared" si="2"/>
         <v>-6.6609999999999978</v>
       </c>
@@ -2009,26 +2104,26 @@
       <c r="C10" s="4">
         <v>17.393999999999998</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
+        <f t="shared" si="1"/>
+        <v>-8.4069999999999983</v>
+      </c>
+      <c r="E10" s="41">
         <f t="shared" si="0"/>
-        <v>-8.4069999999999983</v>
-      </c>
-      <c r="E10" s="42">
-        <f t="shared" si="1"/>
         <v>0.1955482100694452</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="46">
+      <c r="H10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="43">
         <f>MEDIAN($B$3:$B$26)</f>
         <v>14.3565</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="45">
         <f>MEDIAN($C$3:$C$26)</f>
         <v>21.017499999999998</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="44">
         <f t="shared" si="2"/>
         <v>-6.6609999999999978</v>
       </c>
@@ -2040,26 +2135,26 @@
       <c r="C11" s="4">
         <v>20.762</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
+        <f t="shared" si="1"/>
+        <v>-11.361000000000001</v>
+      </c>
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
-        <v>-11.361000000000001</v>
-      </c>
-      <c r="E11" s="42">
-        <f t="shared" si="1"/>
         <v>11.5342310434028</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="46">
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="43">
         <f>MAX($B$3:$B$26)-MIN($B$3:$B$26)</f>
         <v>13.697999999999999</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="45">
         <f>MAX($C$3:$C$26)-MIN($C$3:$C$26)</f>
         <v>19.568000000000005</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="44">
         <f t="shared" si="2"/>
         <v>-5.8700000000000063</v>
       </c>
@@ -2071,24 +2166,24 @@
       <c r="C12" s="4">
         <v>26.282</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
+        <f t="shared" si="1"/>
+        <v>-11.802</v>
+      </c>
+      <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>-11.802</v>
-      </c>
-      <c r="E12" s="42">
-        <f t="shared" si="1"/>
         <v>14.724167793402795</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="46">
+      <c r="H12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="43">
         <v>4.6859999999999999</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="45">
         <v>5.5164999999999997</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="44">
         <f t="shared" si="2"/>
         <v>-0.83049999999999979</v>
       </c>
@@ -2100,26 +2195,26 @@
       <c r="C13" s="4">
         <v>24.524000000000001</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
+        <f t="shared" si="1"/>
+        <v>-2.1960000000000015</v>
+      </c>
+      <c r="E13" s="41">
         <f t="shared" si="0"/>
-        <v>-2.1960000000000015</v>
-      </c>
-      <c r="E13" s="42">
-        <f t="shared" si="1"/>
         <v>33.278957293402733</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="46">
+      <c r="H13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="43">
         <f>VAR($B$3:$B$26)</f>
         <v>12.669029070652117</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="45">
         <f>VAR($C$3:$C$26)</f>
         <v>23.011757036231874</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="44">
         <f t="shared" si="2"/>
         <v>-10.342727965579757</v>
       </c>
@@ -2131,26 +2226,26 @@
       <c r="C14" s="4">
         <v>18.643999999999998</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
+        <f t="shared" si="1"/>
+        <v>-3.3459999999999983</v>
+      </c>
+      <c r="E14" s="41">
         <f t="shared" si="0"/>
-        <v>-3.3459999999999983</v>
-      </c>
-      <c r="E14" s="42">
-        <f t="shared" si="1"/>
         <v>21.333236460069436</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="46">
+      <c r="H14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="43">
         <f>STDEV($B$3:$B$26)</f>
         <v>3.559357957645187</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="45">
         <f>STDEV($C$3:$C$26)</f>
         <v>4.7970571224691367</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="44">
         <f t="shared" si="2"/>
         <v>-1.2376991648239497</v>
       </c>
@@ -2162,26 +2257,26 @@
       <c r="C15" s="4">
         <v>17.510000000000002</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
+        <f t="shared" si="1"/>
+        <v>-2.4370000000000012</v>
+      </c>
+      <c r="E15" s="41">
         <f t="shared" si="0"/>
-        <v>-2.4370000000000012</v>
-      </c>
-      <c r="E15" s="42">
-        <f t="shared" si="1"/>
         <v>30.556480710069401</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="43">
         <f>(I14/SQRT(I6))</f>
         <v>0.72655090067879735</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="45">
         <f>(J14/SQRT(J6))</f>
         <v>0.97919518475276157</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="44">
         <f t="shared" si="2"/>
         <v>-0.25264428407396422</v>
       </c>
@@ -2193,268 +2288,338 @@
       <c r="C16" s="4">
         <v>20.329999999999998</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
+        <f t="shared" si="1"/>
+        <v>-3.4009999999999998</v>
+      </c>
+      <c r="E16" s="41">
         <f t="shared" si="0"/>
-        <v>-3.4009999999999998</v>
-      </c>
-      <c r="E16" s="42">
-        <f t="shared" si="1"/>
         <v>20.828194376736089</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="49">
+      <c r="H16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="46">
         <v>23</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="47">
         <v>23</v>
       </c>
-      <c r="K16" s="51"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="3">
         <v>18.2</v>
       </c>
       <c r="C17" s="4">
         <v>35.255000000000003</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
+        <f t="shared" si="1"/>
+        <v>-17.055000000000003</v>
+      </c>
+      <c r="E17" s="41">
         <f t="shared" si="0"/>
-        <v>-17.055000000000003</v>
-      </c>
-      <c r="E17" s="42">
-        <f t="shared" si="1"/>
         <v>82.631887543402897</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:16">
       <c r="B18" s="3">
         <v>12.13</v>
       </c>
       <c r="C18" s="4">
         <v>22.158000000000001</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
+        <f t="shared" si="1"/>
+        <v>-10.028</v>
+      </c>
+      <c r="E18" s="41">
         <f t="shared" si="0"/>
-        <v>-10.028</v>
-      </c>
-      <c r="E18" s="42">
-        <f t="shared" si="1"/>
         <v>4.2568286267361239</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:16">
       <c r="B19" s="3">
         <v>18.495000000000001</v>
       </c>
       <c r="C19" s="4">
         <v>25.138999999999999</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="38">
+        <f t="shared" si="1"/>
+        <v>-6.6439999999999984</v>
+      </c>
+      <c r="E19" s="41">
         <f t="shared" si="0"/>
-        <v>-6.6439999999999984</v>
-      </c>
-      <c r="E19" s="42">
-        <f t="shared" si="1"/>
         <v>1.7444906267361087</v>
       </c>
-      <c r="H19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="37">
+      <c r="H19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="36">
         <v>15.875</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>35.753</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18">
+    <row r="20" spans="2:16" ht="18">
       <c r="B20" s="3">
         <v>10.638999999999999</v>
       </c>
       <c r="C20" s="4">
         <v>20.428999999999998</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="38">
+        <f t="shared" si="1"/>
+        <v>-9.7899999999999991</v>
+      </c>
+      <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>-9.7899999999999991</v>
-      </c>
-      <c r="E20" s="42">
-        <f t="shared" si="1"/>
         <v>3.331385460069451</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="2:15" ht="18.75" thickBot="1">
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+    </row>
+    <row r="21" spans="2:16" ht="18.75" thickBot="1">
       <c r="B21" s="3">
         <v>11.343999999999999</v>
       </c>
       <c r="C21" s="4">
         <v>17.425000000000001</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
+        <f t="shared" si="1"/>
+        <v>-6.0810000000000013</v>
+      </c>
+      <c r="E21" s="41">
         <f t="shared" si="0"/>
-        <v>-6.0810000000000013</v>
-      </c>
-      <c r="E21" s="42">
-        <f t="shared" si="1"/>
         <v>3.5486710434027628</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="3">
         <v>12.369</v>
       </c>
       <c r="C22" s="4">
         <v>34.287999999999997</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="38">
+        <f t="shared" si="1"/>
+        <v>-21.918999999999997</v>
+      </c>
+      <c r="E22" s="41">
         <f t="shared" si="0"/>
-        <v>-21.918999999999997</v>
-      </c>
-      <c r="E22" s="42">
-        <f t="shared" si="1"/>
         <v>194.71993021006946</v>
       </c>
-      <c r="H22" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="53">
+      <c r="H22" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="50">
         <f>(I6-1)</f>
         <v>23</v>
       </c>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="3">
         <v>12.944000000000001</v>
       </c>
       <c r="C23" s="4">
         <v>23.893999999999998</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="38">
+        <f t="shared" si="1"/>
+        <v>-10.949999999999998</v>
+      </c>
+      <c r="E23" s="41">
         <f t="shared" si="0"/>
-        <v>-10.949999999999998</v>
-      </c>
-      <c r="E23" s="42">
-        <f t="shared" si="1"/>
         <v>8.9114687934027792</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="55">
+      <c r="H23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="52">
         <v>0.05</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="53">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" ht="18">
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="46.5">
       <c r="B24" s="3">
         <v>14.233000000000001</v>
       </c>
       <c r="C24" s="4">
         <v>17.96</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="38">
+        <f t="shared" si="1"/>
+        <v>-3.7270000000000003</v>
+      </c>
+      <c r="E24" s="41">
         <f t="shared" si="0"/>
-        <v>-3.7270000000000003</v>
-      </c>
-      <c r="E24" s="42">
-        <f t="shared" si="1"/>
         <v>17.958878210069418</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="71">
+        <v>2.069</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="55">
-        <v>1.714</v>
-      </c>
-      <c r="J24" s="58"/>
-      <c r="K24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
+    </row>
+    <row r="25" spans="2:16" ht="18">
       <c r="B25" s="3">
         <v>19.71</v>
       </c>
       <c r="C25" s="4">
         <v>22.058</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="38">
+        <f t="shared" si="1"/>
+        <v>-2.347999999999999</v>
+      </c>
+      <c r="E25" s="41">
         <f t="shared" si="0"/>
-        <v>-2.347999999999999</v>
-      </c>
-      <c r="E25" s="42">
-        <f t="shared" si="1"/>
         <v>31.548348626736093</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+      <c r="H25" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="52">
+        <f>AVERAGE($D$3:$D$26)</f>
+        <v>-7.964791666666664</v>
+      </c>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="2:16" ht="42.75" thickBot="1">
       <c r="B26" s="5">
         <v>16.004000000000001</v>
       </c>
       <c r="C26" s="6">
         <v>21.157</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="39">
+        <f t="shared" si="1"/>
+        <v>-5.1529999999999987</v>
+      </c>
+      <c r="E26" s="42">
         <f t="shared" si="0"/>
-        <v>-5.1529999999999987</v>
-      </c>
-      <c r="E26" s="43">
-        <f t="shared" si="1"/>
         <v>7.9061723767361034</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="58"/>
-    </row>
-    <row r="27" spans="2:15" ht="18">
-      <c r="H27" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="55">
-        <f>AVERAGE(D3:D26)</f>
-        <v>-7.964791666666664</v>
-      </c>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" spans="2:15" ht="18.75">
-      <c r="H28" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="55">
-        <f>SQRT(SUM(E3:E26)/23)</f>
+      <c r="H26" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="52">
+        <f>SQRT(SUM($E$3:$E$26)/23)</f>
         <v>4.8648269103590538</v>
       </c>
-      <c r="J28" s="58"/>
-    </row>
-    <row r="29" spans="2:15" ht="18.75" thickBot="1">
-      <c r="H29" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="61">
-        <f>(I27/(I28/SQRT(24)))</f>
+      <c r="J26" s="55"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="H27" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="66">
+        <f>(I26/SQRT(24))</f>
+        <v>0.99302863477834025</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" thickBot="1">
+      <c r="H28" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="56">
+        <f>(I25/(I26/SQRT(24)))</f>
         <v>-8.020706944109957</v>
       </c>
-      <c r="J29" s="62"/>
+      <c r="J28" s="57"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="H29" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="80"/>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="15.75" thickBot="1">
+      <c r="H30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="18">
+        <f>($I$25-($I$24*$I$27))</f>
+        <v>-10.01936791202305</v>
+      </c>
+      <c r="J30" s="19">
+        <f>($I$25+($I$24*$I$27))</f>
+        <v>-5.9102154213102782</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="70.5" customHeight="1">
+      <c r="H32" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+    </row>
+    <row r="33" spans="8:13" ht="31.5" customHeight="1">
+      <c r="H33" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+    </row>
+    <row r="34" spans="8:13" ht="30" customHeight="1">
+      <c r="H34" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2506,287 +2671,287 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>8.6300000000000008</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4">
         <v>15.686999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>8.9870000000000001</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4">
         <v>17.393999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>9.4009999999999998</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4">
         <v>17.425000000000001</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>9.5640000000000001</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4">
         <v>17.510000000000002</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>24</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>10.638999999999999</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4">
         <v>17.96</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="22">
         <v>14.3565</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>21.017499999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>11.343999999999999</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4">
         <v>18.643999999999998</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="22">
         <f>AVERAGE($A$7:$A$8)</f>
         <v>11.711500000000001</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <f>AVERAGE($C$7:$C$8)</f>
         <v>18.692499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>12.079000000000001</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="35">
+      <c r="B8" s="25"/>
+      <c r="C8" s="34">
         <v>18.741</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22">
         <f>AVERAGE($A$19:$A$20)</f>
         <v>16.397500000000001</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <f>AVERAGE($C$19:$C$20)</f>
         <v>24.209</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>12.13</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="35">
+      <c r="B9" s="25"/>
+      <c r="C9" s="34">
         <v>19.277999999999999</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="22">
         <f>(G8-G7)</f>
         <v>4.6859999999999999</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <f>(H8-H7)</f>
         <v>5.5165000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>12.238</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="35">
+      <c r="B10" s="25"/>
+      <c r="C10" s="34">
         <v>20.329999999999998</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>12.369</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="35">
+      <c r="B11" s="25"/>
+      <c r="C11" s="34">
         <v>20.428999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>12.944000000000001</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="35">
+      <c r="B12" s="25"/>
+      <c r="C12" s="34">
         <v>20.762</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>14.233000000000001</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="35">
+      <c r="B13" s="25"/>
+      <c r="C13" s="34">
         <v>20.878</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>14.48</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="36">
+      <c r="B14" s="25"/>
+      <c r="C14" s="35">
         <v>21.157</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>14.669</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="36">
+      <c r="B15" s="25"/>
+      <c r="C15" s="35">
         <v>21.213999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>14.692</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="36">
+      <c r="B16" s="25"/>
+      <c r="C16" s="35">
         <v>22.058</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <v>15.073</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="36">
+      <c r="B17" s="25"/>
+      <c r="C17" s="35">
         <v>22.158000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>15.298</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="36">
+      <c r="B18" s="25"/>
+      <c r="C18" s="35">
         <v>22.803000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>16.004000000000001</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="36">
+      <c r="B19" s="25"/>
+      <c r="C19" s="35">
         <v>23.893999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>16.791</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="33">
+      <c r="B20" s="25"/>
+      <c r="C20" s="32">
         <v>24.524000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>16.928999999999998</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="33">
+      <c r="B21" s="25"/>
+      <c r="C21" s="32">
         <v>24.571999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>18.2</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="33">
+      <c r="B22" s="25"/>
+      <c r="C22" s="32">
         <v>25.138999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>18.495000000000001</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="33">
+      <c r="B23" s="25"/>
+      <c r="C23" s="32">
         <v>26.282</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>19.71</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="33">
+      <c r="B24" s="25"/>
+      <c r="C24" s="32">
         <v>34.287999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>22.327999999999999</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="34">
+      <c r="B25" s="26"/>
+      <c r="C25" s="33">
         <v>35.255000000000003</v>
       </c>
     </row>

--- a/mlfnd_TestPerceptualPhenomenon/M2-Project-TestPerceptualPhenomenon.xlsx
+++ b/mlfnd_TestPerceptualPhenomenon/M2-Project-TestPerceptualPhenomenon.xlsx
@@ -1290,12 +1290,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,8 +1317,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.4488407699037621E-2"/>
           <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.66936723534558218"/>
-          <c:h val="0.79869969378827677"/>
+          <c:w val="0.66936723534558262"/>
+          <c:h val="0.79869969378827721"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1516,24 +1516,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73598080"/>
-        <c:axId val="73599616"/>
+        <c:axId val="73954432"/>
+        <c:axId val="73955968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73598080"/>
+        <c:axId val="73954432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73599616"/>
+        <c:crossAx val="73955968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73599616"/>
+        <c:axId val="73955968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1541,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73598080"/>
+        <c:crossAx val="73954432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1554,7 +1554,315 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Congruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.073</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.638999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.343999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.004000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="88349312"/>
+        <c:axId val="79995648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88349312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79995648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79995648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88349312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incongruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.571999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.282</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.428999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.058</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="92809472"/>
+        <c:axId val="92807936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92809472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92807936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92807936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92809472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1564,16 +1872,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1587,6 +1895,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1882,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:M34"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,7 +2878,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="2:16" ht="42.75" thickBot="1">
+    <row r="26" spans="2:16" ht="31.5" thickBot="1">
       <c r="B26" s="5">
         <v>16.004000000000001</v>
       </c>
@@ -2560,13 +2928,13 @@
       <c r="J28" s="57"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="H29" s="78" t="s">
+      <c r="H29" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="79" t="s">
+      <c r="I29" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="80"/>
+      <c r="J29" s="79"/>
       <c r="K29" t="s">
         <v>32</v>
       </c>
@@ -2585,34 +2953,34 @@
       </c>
     </row>
     <row r="32" spans="2:16" ht="70.5" customHeight="1">
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
     </row>
     <row r="33" spans="8:13" ht="31.5" customHeight="1">
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
     </row>
     <row r="34" spans="8:13" ht="30" customHeight="1">
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
